--- a/Java_WPILib-Entrance-Test-Table.xlsx
+++ b/Java_WPILib-Entrance-Test-Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshgoldman/Documents/Robotics/Training/FRC/Software/FRCTraining-Software-Java/WPILib/Java-WPILib-Entrance-Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E657A47-3AE4-AA4F-8343-73707767B04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED0044-8DCE-C846-ACCF-AE61FB08A5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28060" windowHeight="16420" xr2:uid="{4F68B788-484F-B048-8B8F-2C78573E6911}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="16420" xr2:uid="{4F68B788-484F-B048-8B8F-2C78573E6911}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
